--- a/uploadDir/SEM1.xlsx
+++ b/uploadDir/SEM1.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My programs\Electron\ExcelTesting\window\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="defaulter" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Roll No</t>
+  </si>
+  <si>
+    <t>Email ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Mobile No.</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
   <si>
     <t>A</t>
   </si>
@@ -35,20 +50,20 @@
     <t>C</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>dadasas@dasdasd</t>
+  </si>
+  <si>
+    <t>gdgr@fgdgf</t>
+  </si>
+  <si>
+    <t>fgdgdfgdf@gdfgdfgd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,13 +71,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,13 +110,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -359,75 +399,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>2131231231</v>
+      </c>
+      <c r="E2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>1231232323</v>
+      </c>
+      <c r="E3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
+      <c r="D4">
+        <v>3232323233</v>
+      </c>
+      <c r="E4">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId4"/>
 </worksheet>
 </file>